--- a/new-wheels-db/Data/query_results.xlsx
+++ b/new-wheels-db/Data/query_results.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thayc\Documents\sql-business-case\new-wheels-db\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABBDDCE-B5A0-441A-9458-6F70B69028E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBA8922-B128-45DA-A72E-BB3A7ED40F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5743A262-BD79-478D-96A1-C07325A401CF}"/>
   </bookViews>
   <sheets>
     <sheet name="query_results" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">query_results!$A$1:$L$322</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="139">
   <si>
     <t>state</t>
   </si>
@@ -201,9 +204,6 @@
   </si>
   <si>
     <t>Total Avg</t>
-  </si>
-  <si>
-    <t>Average</t>
   </si>
   <si>
     <t>Very Good</t>
@@ -427,6 +427,39 @@
   <si>
     <t>avg_ship_days</t>
   </si>
+  <si>
+    <t>Pivot Table for Cars per State</t>
+  </si>
+  <si>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>Question 3</t>
+  </si>
+  <si>
+    <t>Question 4</t>
+  </si>
+  <si>
+    <t>Question 5</t>
+  </si>
+  <si>
+    <t>Question 6</t>
+  </si>
+  <si>
+    <t>Question 7</t>
+  </si>
+  <si>
+    <t>Question 8</t>
+  </si>
+  <si>
+    <t>Question 9</t>
+  </si>
+  <si>
+    <t>Question 10</t>
+  </si>
 </sst>
 </file>
 
@@ -452,7 +485,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -475,11 +508,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -488,6 +530,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,7 +1238,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>query_results!$N$1</c:f>
+              <c:f>query_results!$E$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1211,7 +1259,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>query_results!$M$2:$M$5</c:f>
+              <c:f>query_results!$D$53:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1232,7 +1280,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>query_results!$N$2:$N$5</c:f>
+              <c:f>query_results!$E$53:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1657,7 +1705,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>query_results!$D$23</c:f>
+              <c:f>query_results!$A$93</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1678,7 +1726,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>query_results!$E$22:$H$22</c:f>
+              <c:f>query_results!$B$92:$E$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1699,7 +1747,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>query_results!$E$23:$H$23</c:f>
+              <c:f>query_results!$B$93:$E$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1729,7 +1777,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>query_results!$D$24</c:f>
+              <c:f>query_results!$A$94</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1750,7 +1798,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>query_results!$E$22:$H$22</c:f>
+              <c:f>query_results!$B$92:$E$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1771,7 +1819,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>query_results!$E$24:$H$24</c:f>
+              <c:f>query_results!$B$94:$E$94</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1801,7 +1849,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>query_results!$D$25</c:f>
+              <c:f>query_results!$A$95</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1822,7 +1870,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>query_results!$E$22:$H$22</c:f>
+              <c:f>query_results!$B$92:$E$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1843,7 +1891,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>query_results!$E$25:$H$25</c:f>
+              <c:f>query_results!$B$95:$E$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1873,7 +1921,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>query_results!$D$26</c:f>
+              <c:f>query_results!$A$96</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1894,7 +1942,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>query_results!$E$22:$H$22</c:f>
+              <c:f>query_results!$B$92:$E$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1915,7 +1963,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>query_results!$E$26:$H$26</c:f>
+              <c:f>query_results!$B$96:$E$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1945,7 +1993,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>query_results!$D$27</c:f>
+              <c:f>query_results!$A$97</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1966,7 +2014,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>query_results!$E$22:$H$22</c:f>
+              <c:f>query_results!$B$92:$E$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1987,7 +2035,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>query_results!$E$27:$H$27</c:f>
+              <c:f>query_results!$B$97:$E$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2013,7 +2061,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2405,7 +2452,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>query_results!$N$22</c:f>
+              <c:f>query_results!$B$136</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2426,7 +2473,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>query_results!$M$23:$M$27</c:f>
+              <c:f>query_results!$A$137:$A$141</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2449,7 +2496,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>query_results!$N$23:$N$27</c:f>
+              <c:f>query_results!$B$137:$B$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2842,7 +2889,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>query_results!$M$47</c:f>
+              <c:f>query_results!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2877,7 +2924,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>query_results!$L$48:$L$51</c:f>
+              <c:f>query_results!$H$5:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2898,7 +2945,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>query_results!$M$48:$M$51</c:f>
+              <c:f>query_results!$I$5:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3304,7 +3351,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>query_results!$N$71</c:f>
+              <c:f>query_results!$J$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3339,7 +3386,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>query_results!$L$72:$L$75</c:f>
+              <c:f>query_results!$H$27:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3360,7 +3407,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>query_results!$N$72:$N$75</c:f>
+              <c:f>query_results!$J$27:$J$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3762,7 +3809,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>query_results!$H$94</c:f>
+              <c:f>query_results!$H$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3783,7 +3830,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>query_results!$H$95:$H$98</c:f>
+              <c:f>query_results!$H$49:$H$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3813,7 +3860,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>query_results!$I$94</c:f>
+              <c:f>query_results!$I$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3834,7 +3881,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>query_results!$I$95:$I$98</c:f>
+              <c:f>query_results!$I$49:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3880,7 +3927,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>query_results!$J$94</c:f>
+              <c:f>query_results!$J$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3915,7 +3962,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>query_results!$J$95:$J$98</c:f>
+              <c:f>query_results!$J$49:$J$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4278,6 +4325,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="865156496"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4452,7 +4500,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>query_results!$I$111</c:f>
+              <c:f>query_results!$I$92</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4473,7 +4521,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>query_results!$H$112:$H$127</c:f>
+              <c:f>query_results!$H$93:$H$108</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -4529,7 +4577,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>query_results!$I$112:$I$127</c:f>
+              <c:f>query_results!$I$93:$I$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4955,7 +5003,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>query_results!$I$144</c:f>
+              <c:f>query_results!$I$137</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4976,7 +5024,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>query_results!$H$145:$H$148</c:f>
+              <c:f>query_results!$H$138:$H$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4997,7 +5045,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>query_results!$I$145:$I$148</c:f>
+              <c:f>query_results!$I$138:$I$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10220,16 +10268,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>173037</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>216765</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>18327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10256,16 +10304,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>274637</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>65087</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>206520</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>64221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>573087</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>93662</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>962458</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>106939</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10292,16 +10340,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>515937</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>26987</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>460521</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>117040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>417512</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>55562</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>920751</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10328,16 +10376,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>163512</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>7937</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>147061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>427037</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>36512</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>740785</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>51089</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10364,16 +10412,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>258762</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>26987</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>394422</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>515937</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>55562</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>395719</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>108238</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10400,16 +10448,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>230187</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>106362</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>242599</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>127145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>487362</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>141287</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373206</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9815</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10436,16 +10484,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>430212</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>106362</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>462973</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>63932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>77787</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>141287</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>373496</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>99289</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10472,16 +10520,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>220662</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22368</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>58737</xdr:rowOff>
+      <xdr:rowOff>89045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>474662</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10508,16 +10556,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>515937</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>322262</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>107229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>169862</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>538595</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>46037</xdr:rowOff>
+      <xdr:rowOff>86592</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10548,7 +10596,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thay Chansy" refreshedDate="45437.654756018521" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="143" xr:uid="{E3C12D29-8C24-4901-BC25-358DEE70F02A}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D47:F190" sheet="query_results"/>
+    <worksheetSource ref="A179:C322" sheet="query_results"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="State" numFmtId="0">
@@ -11377,8 +11425,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9DED3D2-3A38-4468-A439-82C0EFC1D19F}" name="PivotTable11" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="H47:I84" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9DED3D2-3A38-4468-A439-82C0EFC1D19F}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D181:E218" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0">
       <items count="50">
@@ -11952,125 +12000,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AD035A-9BCF-4726-9EA7-546F0C3276CD}">
-  <dimension ref="A1:N190"/>
+  <dimension ref="A1:J322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="40" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="H135" sqref="H135"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" customWidth="1"/>
     <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6328125" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" customWidth="1"/>
     <col min="8" max="8" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.08984375" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" customWidth="1"/>
     <col min="12" max="12" width="12.453125" customWidth="1"/>
     <col min="13" max="13" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.1796875" customWidth="1"/>
+    <col min="16" max="16" width="18.7265625" customWidth="1"/>
+    <col min="25" max="25" width="14.7265625" customWidth="1"/>
+    <col min="26" max="26" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>97</v>
       </c>
-      <c r="M2" s="1">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1">
-        <v>3.5548000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>97</v>
       </c>
-      <c r="M3" s="1">
-        <v>2</v>
-      </c>
-      <c r="N3" s="1">
-        <v>3.355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>86</v>
       </c>
-      <c r="M4" s="1">
-        <v>3</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2.9563000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>69</v>
       </c>
-      <c r="M5" s="1">
-        <v>4</v>
-      </c>
-      <c r="N5" s="1">
-        <v>2.3969999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>35</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>33</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="1">
-        <v>3.0657749999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -12078,7 +12133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -12086,7 +12141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -12094,7 +12149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -12102,7 +12157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -12110,7 +12165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -12118,7 +12173,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -12126,7 +12181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -12134,7 +12189,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -12142,7 +12197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -12150,7 +12205,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -12158,7 +12213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -12166,7 +12221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -12174,223 +12229,127 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>17</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2</v>
-      </c>
-      <c r="G22" s="1">
-        <v>3</v>
-      </c>
-      <c r="H22" s="1">
-        <v>4</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>17</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="1">
-        <v>30</v>
-      </c>
-      <c r="F23" s="1">
-        <v>28.626000000000001</v>
-      </c>
-      <c r="G23" s="1">
-        <v>16.593900000000001</v>
-      </c>
-      <c r="H23" s="1">
-        <v>10.0503</v>
-      </c>
-      <c r="I23" s="1">
-        <v>21.317550000000001</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N23" s="1">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>17</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="1">
-        <v>28.709700000000002</v>
-      </c>
-      <c r="F24" s="1">
-        <v>22.1374</v>
-      </c>
-      <c r="G24" s="1">
-        <v>20.960699999999999</v>
-      </c>
-      <c r="H24" s="1">
-        <v>10.0503</v>
-      </c>
-      <c r="I24" s="1">
-        <v>20.464524999999998</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N24" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>16</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="1">
-        <v>19.032299999999999</v>
-      </c>
-      <c r="F25" s="1">
-        <v>20.228999999999999</v>
-      </c>
-      <c r="G25" s="1">
-        <v>21.834099999999999</v>
-      </c>
-      <c r="H25" s="1">
-        <v>20.1005</v>
-      </c>
-      <c r="I25" s="1">
-        <v>20.298974999999999</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N25" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>14</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="1">
-        <v>11.2903</v>
-      </c>
-      <c r="F26" s="1">
-        <v>14.1221</v>
-      </c>
-      <c r="G26" s="1">
-        <v>22.7074</v>
-      </c>
-      <c r="H26" s="1">
-        <v>29.145700000000001</v>
-      </c>
-      <c r="I26" s="1">
-        <v>19.316375000000001</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N26" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>14</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="1">
-        <v>10.967700000000001</v>
-      </c>
-      <c r="F27" s="1">
-        <v>14.8855</v>
-      </c>
-      <c r="G27" s="1">
-        <v>17.9039</v>
-      </c>
       <c r="H27" s="1">
-        <v>30.653300000000002</v>
-      </c>
-      <c r="I27" s="1">
-        <v>18.602599999999999</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N27" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>39421580.159999996</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H28" s="1">
+        <v>2</v>
+      </c>
+      <c r="I28" s="2">
+        <v>32715830.34</v>
+      </c>
+      <c r="J28" s="1">
+        <v>-17.010352690000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H29" s="1">
+        <v>3</v>
+      </c>
+      <c r="I29" s="2">
+        <v>29229896.190000001</v>
+      </c>
+      <c r="J29" s="1">
+        <v>-10.655190810000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H30" s="1">
+        <v>4</v>
+      </c>
+      <c r="I30" s="2">
+        <v>23346779.629999999</v>
+      </c>
+      <c r="J30" s="1">
+        <v>-20.127052540000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -12398,7 +12357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -12406,7 +12365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -12414,7 +12373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -12422,7 +12381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -12430,7 +12389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -12438,7 +12397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -12446,7 +12405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -12454,7 +12413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -12462,7 +12421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -12470,7 +12429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -12478,7 +12437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -12486,7 +12445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -12494,7 +12453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -12502,7 +12461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -12510,2124 +12469,2324 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="1">
         <v>2</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I48" s="5">
-        <v>2.097902097902098E-2</v>
-      </c>
-      <c r="L48" s="1">
-        <v>1</v>
-      </c>
-      <c r="M48" s="1">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I49" s="5">
-        <v>1.3986013986013986E-2</v>
-      </c>
-      <c r="L49" s="1">
-        <v>2</v>
-      </c>
-      <c r="M49" s="1">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2">
+        <v>39421580.159999996</v>
+      </c>
+      <c r="J49" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2</v>
+      </c>
+      <c r="I50" s="2">
+        <v>32715830.34</v>
+      </c>
+      <c r="J50" s="1">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H51" s="1">
+        <v>3</v>
+      </c>
+      <c r="I51" s="2">
+        <v>29229896.190000001</v>
+      </c>
+      <c r="J51" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" s="1">
+        <v>4</v>
+      </c>
+      <c r="I52" s="2">
+        <v>23346779.629999999</v>
+      </c>
+      <c r="J52" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3.5548000000000002</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3.355</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I54" s="2">
+        <v>124714086.31999999</v>
+      </c>
+      <c r="J54" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D55" s="1">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2.9563000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D56" s="1">
+        <v>4</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2.3969999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="1">
+        <v>3.0657749999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>131</v>
+      </c>
+      <c r="H90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1">
+        <v>3</v>
+      </c>
+      <c r="E92" s="1">
+        <v>4</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B93" s="1">
+        <v>30</v>
+      </c>
+      <c r="C93" s="1">
+        <v>28.626000000000001</v>
+      </c>
+      <c r="D93" s="1">
+        <v>16.593900000000001</v>
+      </c>
+      <c r="E93" s="1">
+        <v>10.0503</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.64384600000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B94" s="1">
+        <v>28.709700000000002</v>
+      </c>
+      <c r="C94" s="1">
+        <v>22.1374</v>
+      </c>
+      <c r="D94" s="1">
+        <v>20.960699999999999</v>
+      </c>
+      <c r="E94" s="1">
+        <v>10.0503</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.62949999999999995</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95" s="1">
+        <v>19.032299999999999</v>
+      </c>
+      <c r="C95" s="1">
+        <v>20.228999999999999</v>
+      </c>
+      <c r="D95" s="1">
+        <v>21.834099999999999</v>
+      </c>
+      <c r="E95" s="1">
+        <v>20.1005</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0.62421899999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96" s="1">
+        <v>11.2903</v>
+      </c>
+      <c r="C96" s="1">
+        <v>14.1221</v>
+      </c>
+      <c r="D96" s="1">
+        <v>22.7074</v>
+      </c>
+      <c r="E96" s="1">
+        <v>29.145700000000001</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0.62346900000000005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97" s="1">
+        <v>10.967700000000001</v>
+      </c>
+      <c r="C97" s="1">
+        <v>14.8855</v>
+      </c>
+      <c r="D97" s="1">
+        <v>17.9039</v>
+      </c>
+      <c r="E97" s="1">
+        <v>30.653300000000002</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0.622174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H98" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0.62062499999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H99" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0.61632699999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H100" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0.61461500000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H101" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0.61448999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H102" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0.61023300000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H103" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0.609545</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H104" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0.60738199999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H105" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0.60083299999999995</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H106" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0.59979199999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H107" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H108" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0.58399999999999996</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B137" s="1">
+        <v>83</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B138" s="1">
+        <v>63</v>
+      </c>
+      <c r="H138" s="1">
+        <v>1</v>
+      </c>
+      <c r="I138" s="1">
+        <v>57.167700000000004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B139" s="1">
+        <v>52</v>
+      </c>
+      <c r="H139" s="1">
+        <v>2</v>
+      </c>
+      <c r="I139" s="1">
+        <v>71.110699999999994</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B140" s="1">
+        <v>50</v>
+      </c>
+      <c r="H140" s="1">
+        <v>3</v>
+      </c>
+      <c r="I140" s="1">
+        <v>117.7555</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B141" s="1">
+        <v>50</v>
+      </c>
+      <c r="H141" s="1">
+        <v>4</v>
+      </c>
+      <c r="I141" s="1">
+        <v>174.09549999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H143" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I143" s="1">
+        <v>105.03234999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E179" s="7"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C180" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C181" s="1">
+        <v>1</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="B182" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C182" s="1">
+        <v>1</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E182" s="5">
+        <v>2.097902097902098E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C183" s="1">
+        <v>1</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E183" s="5">
+        <v>1.3986013986013986E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C184" s="1">
+        <v>1</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E184" s="5">
+        <v>1.3986013986013986E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C185" s="1">
+        <v>1</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E185" s="5">
+        <v>2.7972027972027972E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C186" s="1">
+        <v>1</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="5">
+        <v>2.7972027972027972E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E187" s="5">
+        <v>0.11888111888111888</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C188" s="1">
+        <v>1</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E188" s="5">
+        <v>1.3986013986013986E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C189" s="1">
+        <v>1</v>
+      </c>
+      <c r="D189" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="H50" s="4" t="s">
+      <c r="E189" s="5">
+        <v>8.3916083916083919E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E190" s="5">
+        <v>6.993006993006993E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E191" s="5">
+        <v>6.9930069930069935E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E192" s="5">
+        <v>3.4965034965034968E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E193" s="5">
+        <v>1.3986013986013986E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E194" s="5">
+        <v>2.097902097902098E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E195" s="5">
+        <v>2.097902097902098E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C196" s="1">
+        <v>1</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E196" s="5">
+        <v>6.993006993006993E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E197" s="5">
+        <v>6.993006993006993E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1</v>
+      </c>
+      <c r="D198" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I50" s="5">
+      <c r="E198" s="5">
         <v>1.3986013986013986E-2</v>
       </c>
-      <c r="L50" s="1">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C199" s="1">
+        <v>1</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E199" s="5">
+        <v>1.3986013986013986E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E200" s="5">
+        <v>1.3986013986013986E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C201" s="1">
+        <v>1</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E201" s="5">
+        <v>1.3986013986013986E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C202" s="1">
+        <v>1</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E202" s="5">
+        <v>6.993006993006993E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C203" s="1">
+        <v>1</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E203" s="5">
+        <v>5.5944055944055944E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C204" s="1">
+        <v>1</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E204" s="5">
+        <v>4.195804195804196E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C205" s="1">
+        <v>1</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E205" s="5">
+        <v>1.3986013986013986E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C206" s="1">
+        <v>1</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E206" s="5">
+        <v>2.7972027972027972E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A207" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C207" s="1">
+        <v>1</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E207" s="5">
+        <v>4.8951048951048952E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A208" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C208" s="1">
+        <v>1</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E208" s="5">
+        <v>6.993006993006993E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A209" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C209" s="1">
+        <v>1</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="5">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A210" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C210" s="1">
+        <v>1</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E210" s="5">
+        <v>6.993006993006993E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C211" s="1">
+        <v>1</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E211" s="5">
+        <v>6.993006993006993E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A212" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C212" s="1">
+        <v>1</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E212" s="5">
+        <v>6.993006993006993E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A213" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C213" s="1">
+        <v>1</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E213" s="5">
+        <v>1.3986013986013986E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A214" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C214" s="1">
+        <v>1</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E214" s="5">
+        <v>1.3986013986013986E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A215" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C215" s="1">
+        <v>1</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E215" s="5">
+        <v>6.2937062937062943E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A216" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C216" s="1">
+        <v>1</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E216" s="5">
+        <v>2.7972027972027972E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A217" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C217" s="1">
+        <v>1</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E217" s="5">
+        <v>2.097902097902098E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A218" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C218" s="1">
+        <v>1</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E218" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A219" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C219" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A220" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C220" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A221" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C221" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C222" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C223" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A224" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C224" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C225" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A226" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C226" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A227" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C227" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C228" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C229" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C230" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C231" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C232" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C233" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C234" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A235" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C235" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C236" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C237" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C238" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C239" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C240" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C241" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C242" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C243" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C244" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A245" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C245" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A246" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C246" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C247" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A248" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C248" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A249" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C249" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C250" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C251" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C252" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A253" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C253" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C254" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C255" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C256" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C257" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C258" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C259" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A260" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C260" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A261" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C261" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A262" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C262" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A263" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C263" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A264" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C264" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A265" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C265" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A266" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C266" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A267" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C267" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A268" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C268" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C269" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A270" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C270" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A271" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C271" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A272" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C272" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A273" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C273" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A274" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C274" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A275" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C275" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A276" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C276" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C277" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C278" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C279" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A280" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C280" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A281" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C281" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C282" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C283" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C284" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A285" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C285" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A286" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C286" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C287" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C288" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C289" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C290" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A291" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C291" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A292" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C292" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A293" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C293" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A294" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C294" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A295" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C295" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A296" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C296" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A297" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C297" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A298" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C298" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A299" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M50" s="1">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F51" s="1">
-        <v>1</v>
-      </c>
-      <c r="H51" s="4" t="s">
+      <c r="B299" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C299" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A300" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C300" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A301" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C301" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A302" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C302" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A303" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C303" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A304" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C304" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A305" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C305" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A306" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C306" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A307" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C307" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A308" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C308" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A309" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C309" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A310" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C310" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A311" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C311" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A312" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C312" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A313" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I51" s="5">
-        <v>2.7972027972027972E-2</v>
-      </c>
-      <c r="L51" s="1">
-        <v>4</v>
-      </c>
-      <c r="M51" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F52" s="1">
-        <v>1</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I52" s="5">
-        <v>2.7972027972027972E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I53" s="5">
-        <v>0.11888111888111888</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="C313" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A314" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C314" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A315" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C315" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A316" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C316" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A317" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C317" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A318" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C318" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A319" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C319" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A320" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F54" s="1">
-        <v>1</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I54" s="5">
-        <v>1.3986013986013986E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F55" s="1">
-        <v>1</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I55" s="5">
-        <v>8.3916083916083919E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F56" s="1">
-        <v>1</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I56" s="5">
-        <v>6.993006993006993E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I57" s="5">
-        <v>6.9930069930069935E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I58" s="5">
-        <v>3.4965034965034968E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I59" s="5">
-        <v>1.3986013986013986E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D60" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I60" s="5">
-        <v>2.097902097902098E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D61" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I61" s="5">
-        <v>2.097902097902098E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F62" s="1">
-        <v>1</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I62" s="5">
-        <v>6.993006993006993E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F63" s="1">
-        <v>1</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I63" s="5">
-        <v>6.993006993006993E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D64" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I64" s="5">
-        <v>1.3986013986013986E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D65" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1</v>
-      </c>
-      <c r="H65" s="4" t="s">
+      <c r="C320" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A321" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C321" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A322" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I65" s="5">
-        <v>1.3986013986013986E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D66" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I66" s="5">
-        <v>1.3986013986013986E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F67" s="1">
-        <v>1</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I67" s="5">
-        <v>1.3986013986013986E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D68" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F68" s="1">
-        <v>1</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I68" s="5">
-        <v>6.993006993006993E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F69" s="1">
-        <v>1</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I69" s="5">
-        <v>5.5944055944055944E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D70" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F70" s="1">
-        <v>1</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I70" s="5">
-        <v>4.195804195804196E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D71" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I71" s="5">
-        <v>1.3986013986013986E-2</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D72" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F72" s="1">
-        <v>1</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I72" s="5">
-        <v>2.7972027972027972E-2</v>
-      </c>
-      <c r="L72" s="1">
-        <v>1</v>
-      </c>
-      <c r="M72" s="2">
-        <v>39421580.159999996</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D73" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F73" s="1">
-        <v>1</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I73" s="5">
-        <v>4.8951048951048952E-2</v>
-      </c>
-      <c r="L73" s="1">
-        <v>2</v>
-      </c>
-      <c r="M73" s="2">
-        <v>32715830.34</v>
-      </c>
-      <c r="N73" s="1">
-        <v>-17.010352690000001</v>
-      </c>
-    </row>
-    <row r="74" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D74" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F74" s="1">
-        <v>1</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I74" s="5">
-        <v>6.993006993006993E-3</v>
-      </c>
-      <c r="L74" s="1">
-        <v>3</v>
-      </c>
-      <c r="M74" s="2">
-        <v>29229896.190000001</v>
-      </c>
-      <c r="N74" s="1">
-        <v>-10.655190810000001</v>
-      </c>
-    </row>
-    <row r="75" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D75" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F75" s="1">
-        <v>1</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I75" s="5">
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="L75" s="1">
-        <v>4</v>
-      </c>
-      <c r="M75" s="2">
-        <v>23346779.629999999</v>
-      </c>
-      <c r="N75" s="1">
-        <v>-20.127052540000001</v>
-      </c>
-    </row>
-    <row r="76" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D76" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F76" s="1">
-        <v>1</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I76" s="5">
-        <v>6.993006993006993E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D77" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F77" s="1">
-        <v>1</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I77" s="5">
-        <v>6.993006993006993E-3</v>
-      </c>
-    </row>
-    <row r="78" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F78" s="1">
-        <v>1</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I78" s="5">
-        <v>6.993006993006993E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F79" s="1">
-        <v>1</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I79" s="5">
-        <v>1.3986013986013986E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="4:14" x14ac:dyDescent="0.35">
-      <c r="D80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F80" s="1">
-        <v>1</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I80" s="5">
-        <v>1.3986013986013986E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F81" s="1">
-        <v>1</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I81" s="5">
-        <v>6.2937062937062943E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D82" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F82" s="1">
-        <v>1</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I82" s="5">
-        <v>2.7972027972027972E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D83" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F83" s="1">
-        <v>1</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I83" s="5">
-        <v>2.097902097902098E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D84" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F84" s="1">
-        <v>1</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I84" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D85" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F85" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D86" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F86" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D87" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F87" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D88" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F88" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D89" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F89" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D90" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F90" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D91" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F91" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D92" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F92" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D93" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F93" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D94" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F94" s="1">
-        <v>1</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D95" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F95" s="1">
-        <v>1</v>
-      </c>
-      <c r="H95" s="1">
-        <v>1</v>
-      </c>
-      <c r="I95" s="2">
-        <v>39421580.159999996</v>
-      </c>
-      <c r="J95" s="1">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="96" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D96" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F96" s="1">
-        <v>1</v>
-      </c>
-      <c r="H96" s="1">
-        <v>2</v>
-      </c>
-      <c r="I96" s="2">
-        <v>32715830.34</v>
-      </c>
-      <c r="J96" s="1">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="97" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D97" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F97" s="1">
-        <v>1</v>
-      </c>
-      <c r="H97" s="1">
-        <v>3</v>
-      </c>
-      <c r="I97" s="2">
-        <v>29229896.190000001</v>
-      </c>
-      <c r="J97" s="1">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="98" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D98" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F98" s="1">
-        <v>1</v>
-      </c>
-      <c r="H98" s="1">
-        <v>4</v>
-      </c>
-      <c r="I98" s="2">
-        <v>23346779.629999999</v>
-      </c>
-      <c r="J98" s="1">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="99" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D99" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F99" s="1">
-        <v>1</v>
-      </c>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-    </row>
-    <row r="100" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D100" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F100" s="1">
-        <v>1</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I100" s="2">
-        <v>124714086.31999999</v>
-      </c>
-      <c r="J100" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="101" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D101" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F101" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D102" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F102" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D103" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F103" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D104" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F104" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D105" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F105" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D106" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F106" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D107" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F107" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D108" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F108" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D109" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F109" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D110" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F110" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D111" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F111" s="1">
-        <v>1</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112" spans="4:10" x14ac:dyDescent="0.35">
-      <c r="D112" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F112" s="1">
-        <v>1</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I112" s="1">
-        <v>0.64384600000000003</v>
-      </c>
-    </row>
-    <row r="113" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D113" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F113" s="1">
-        <v>1</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I113" s="1">
-        <v>0.62949999999999995</v>
-      </c>
-    </row>
-    <row r="114" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D114" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F114" s="1">
-        <v>1</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I114" s="1">
-        <v>0.62421899999999997</v>
-      </c>
-    </row>
-    <row r="115" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D115" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F115" s="1">
-        <v>1</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I115" s="1">
-        <v>0.62346900000000005</v>
-      </c>
-    </row>
-    <row r="116" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D116" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F116" s="1">
-        <v>1</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I116" s="1">
-        <v>0.622174</v>
-      </c>
-    </row>
-    <row r="117" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D117" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F117" s="1">
-        <v>1</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I117" s="1">
-        <v>0.62062499999999998</v>
-      </c>
-    </row>
-    <row r="118" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D118" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F118" s="1">
-        <v>1</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I118" s="1">
-        <v>0.61632699999999996</v>
-      </c>
-    </row>
-    <row r="119" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D119" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F119" s="1">
-        <v>1</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I119" s="1">
-        <v>0.61461500000000002</v>
-      </c>
-    </row>
-    <row r="120" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D120" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F120" s="1">
-        <v>1</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I120" s="1">
-        <v>0.61448999999999998</v>
-      </c>
-    </row>
-    <row r="121" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D121" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F121" s="1">
-        <v>1</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I121" s="1">
-        <v>0.61023300000000003</v>
-      </c>
-    </row>
-    <row r="122" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D122" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F122" s="1">
-        <v>1</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I122" s="1">
-        <v>0.609545</v>
-      </c>
-    </row>
-    <row r="123" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D123" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F123" s="1">
-        <v>1</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I123" s="1">
-        <v>0.60738199999999998</v>
-      </c>
-    </row>
-    <row r="124" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D124" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F124" s="1">
-        <v>1</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I124" s="1">
-        <v>0.60083299999999995</v>
-      </c>
-    </row>
-    <row r="125" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D125" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F125" s="1">
-        <v>1</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I125" s="1">
-        <v>0.59979199999999999</v>
-      </c>
-    </row>
-    <row r="126" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D126" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F126" s="1">
-        <v>1</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I126" s="1">
-        <v>0.58499999999999996</v>
-      </c>
-    </row>
-    <row r="127" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D127" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F127" s="1">
-        <v>1</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I127" s="1">
-        <v>0.58399999999999996</v>
-      </c>
-    </row>
-    <row r="128" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D128" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F128" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D129" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F129" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D130" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F130" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D131" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D132" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F132" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D133" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F133" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D134" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F134" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D135" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F135" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D136" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F136" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D137" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F137" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D138" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F138" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D139" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F139" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D140" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F140" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D141" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F141" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D142" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F142" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D143" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F143" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D144" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F144" s="1">
-        <v>1</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="145" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D145" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F145" s="1">
-        <v>1</v>
-      </c>
-      <c r="H145" s="1">
-        <v>1</v>
-      </c>
-      <c r="I145" s="1">
-        <v>57.167700000000004</v>
-      </c>
-    </row>
-    <row r="146" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D146" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F146" s="1">
-        <v>1</v>
-      </c>
-      <c r="H146" s="1">
-        <v>2</v>
-      </c>
-      <c r="I146" s="1">
-        <v>71.110699999999994</v>
-      </c>
-    </row>
-    <row r="147" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D147" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F147" s="1">
-        <v>1</v>
-      </c>
-      <c r="H147" s="1">
-        <v>3</v>
-      </c>
-      <c r="I147" s="1">
-        <v>117.7555</v>
-      </c>
-    </row>
-    <row r="148" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D148" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F148" s="1">
-        <v>1</v>
-      </c>
-      <c r="H148" s="1">
-        <v>4</v>
-      </c>
-      <c r="I148" s="1">
-        <v>174.09549999999999</v>
-      </c>
-    </row>
-    <row r="149" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D149" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F149" s="1">
-        <v>1</v>
-      </c>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D150" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F150" s="1">
-        <v>1</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I150" s="1">
-        <v>105.03234999999999</v>
-      </c>
-    </row>
-    <row r="151" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D151" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F151" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D152" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F152" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D153" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F153" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D154" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F154" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D155" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F155" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D156" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F156" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D157" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F157" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D158" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F158" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D159" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F159" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D160" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F160" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D161" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F161" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D162" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F162" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D163" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F163" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D164" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F164" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D165" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F165" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D166" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F166" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D167" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F167" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D168" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F168" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D169" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F169" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D170" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F170" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D171" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F171" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D172" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F172" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D173" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F173" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D174" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F174" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D175" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F175" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D176" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F176" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D177" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F177" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D178" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F178" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D179" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F179" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D180" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F180" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D181" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F181" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D182" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F182" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D183" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F183" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D184" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F184" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D185" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F185" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D186" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F186" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D187" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F187" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D188" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F188" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D189" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F189" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D190" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F190" s="1">
+      <c r="C322" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D179:E179"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/new-wheels-db/Data/query_results.xlsx
+++ b/new-wheels-db/Data/query_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thayc\Documents\sql-business-case\new-wheels-db\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBA8922-B128-45DA-A72E-BB3A7ED40F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD50543-E4E0-4C73-94CD-E9A44956C4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5743A262-BD79-478D-96A1-C07325A401CF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5743A262-BD79-478D-96A1-C07325A401CF}"/>
   </bookViews>
   <sheets>
     <sheet name="query_results" sheetId="1" r:id="rId1"/>
@@ -12002,7 +12002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AD035A-9BCF-4726-9EA7-546F0C3276CD}">
   <dimension ref="A1:J322"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="40" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="145" zoomScaleNormal="40" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="H135" sqref="H135"/>
     </sheetView>
   </sheetViews>
